--- a/ES2N-Requisitos Funcionais v4.0.xlsx
+++ b/ES2N-Requisitos Funcionais v4.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raven\Desktop\00 - Fatec\5 semestre\Engenharia de Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50F6588-9413-4168-8DD5-21552760F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28273F11-561A-4F89-97F8-1402C73E21E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Os usuários registrados podem fazer login no aplicativo atravez do cadastro ou pelas redes sociais (Facebook ou Google)</t>
   </si>
   <si>
-    <t>Pode chamar RF006</t>
-  </si>
-  <si>
     <t>Gerenciar Tipos de cuidados</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>DATA: 21/10/2023</t>
+  </si>
+  <si>
+    <t>Pode chamar RF007</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +700,7 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4"/>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.45">
@@ -814,13 +814,13 @@
         <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="93.6" x14ac:dyDescent="0.45">
@@ -848,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -879,10 +879,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>6</v>
@@ -896,10 +896,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -908,14 +908,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="23.55" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
